--- a/Literature mapping/stateoftheart.xlsx
+++ b/Literature mapping/stateoftheart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14DB361-A389-46DC-BAC9-E557CEA000DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E62E-D39E-4C8D-8427-3F1160E56DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20685" yWindow="-21525" windowWidth="32385" windowHeight="20835" activeTab="12" xr2:uid="{BEBBE7CD-C2EA-4C4E-939C-4EA0A7F78CED}"/>
+    <workbookView xWindow="18705" yWindow="-17505" windowWidth="10125" windowHeight="6795" tabRatio="917" activeTab="21" xr2:uid="{BEBBE7CD-C2EA-4C4E-939C-4EA0A7F78CED}"/>
   </bookViews>
   <sheets>
     <sheet name="google Scholar" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,26 @@
     <sheet name="Semantic scholar" sheetId="12" r:id="rId9"/>
     <sheet name="springerlink" sheetId="14" r:id="rId10"/>
     <sheet name="Wiley online" sheetId="13" r:id="rId11"/>
-    <sheet name="All" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="25" r:id="rId12"/>
+    <sheet name="All" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId14"/>
+    <sheet name="backward snowballing" sheetId="17" r:id="rId15"/>
+    <sheet name="forward snowballing" sheetId="16" r:id="rId16"/>
+    <sheet name="snowball total" sheetId="18" r:id="rId17"/>
+    <sheet name="BSB1" sheetId="21" r:id="rId18"/>
+    <sheet name="FSB1" sheetId="19" r:id="rId19"/>
+    <sheet name="snowball1" sheetId="22" r:id="rId20"/>
+    <sheet name="FSB2" sheetId="23" r:id="rId21"/>
+    <sheet name="snowball2" sheetId="24" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">All!$A$1:$D$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">All!$A$1:$D$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BASE!$B$19:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'google Scholar'!$A$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet10!$A$1:$B$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'snowball total'!$A$1:$B$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">snowball1!$A$1:$B$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">snowball2!$A$1:$D$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">springerlink!$A$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="424">
   <si>
     <t>Search`</t>
   </si>
@@ -489,24 +502,12 @@
     <t>Design &amp; Evaluation of an Accessible High-Level Language for Advanced Cryptography</t>
   </si>
   <si>
-    <t>could not find</t>
-  </si>
-  <si>
-    <t>no access</t>
-  </si>
-  <si>
-    <t>irrelevant book</t>
-  </si>
-  <si>
     <t>initial search</t>
   </si>
   <si>
     <t>did not download</t>
   </si>
   <si>
-    <t>Just a proposal</t>
-  </si>
-  <si>
     <t>Duplicate</t>
   </si>
   <si>
@@ -535,6 +536,807 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>cited by</t>
+  </si>
+  <si>
+    <t>cites after 2020</t>
+  </si>
+  <si>
+    <t>A Framework for Projectional Multi-variant Model Editors</t>
+  </si>
+  <si>
+    <t>Formal Software Architectural Migration Towards Emerging Architectural Styles</t>
+  </si>
+  <si>
+    <t>Modernizing Legacy Systems with Microservices: A Roadmap</t>
+  </si>
+  <si>
+    <t>Software Architectural Migration: An Automated Planning Approach</t>
+  </si>
+  <si>
+    <t>A meta-approach to guide architectural refactoring from monolithic applications to microservices</t>
+  </si>
+  <si>
+    <t>Análise do Processo de Tomada de Decisao para Adoç ao da Arquitetura de Microsserviços, Baseado em Requisitos da Norma ISO-25010 e do S-Cube</t>
+  </si>
+  <si>
+    <t>Multi-level production process modeling language</t>
+  </si>
+  <si>
+    <t>Model-Driven Simulation-Based Analysis for Multi-Robot Systems</t>
+  </si>
+  <si>
+    <t>Designing Trustworthy Autonomous Systems</t>
+  </si>
+  <si>
+    <t>Der Überwachungskapitalismus im Bildungsbereich/eingereicht von Lennart-Simon Göhmann</t>
+  </si>
+  <si>
+    <t>Filling typed holes with live GUIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exploring Visual Primitives for Authoring Source Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Complete Bibliography of Proceedings of the ACM on Programming Languages</t>
+  </si>
+  <si>
+    <t>Design of the online platform of intelligent library based on machine learning and image recognition</t>
+  </si>
+  <si>
+    <t>Behavior-Driven Quality First Agile Testing for Cloud Service</t>
+  </si>
+  <si>
+    <t>PDCA Cycle of Environmental Management Accounting under the background of Data Mining and Intelligent Systems</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Supporting feature-oriented evolution in industrial automation product lines</t>
+  </si>
+  <si>
+    <t>Locating feature revisions in software systems evolving in space and time</t>
+  </si>
+  <si>
+    <t>Guiding feature model evolution by lifting code-level dependencies</t>
+  </si>
+  <si>
+    <t>Mining Feature Revisions in Highly-Configurable Software Systems</t>
+  </si>
+  <si>
+    <t>Seamless Variability Management With the Virtual Platform</t>
+  </si>
+  <si>
+    <t>USING MUSIC FEATURES FOR MANAGING REVISIONS AND VARIANTS IN MUSIC NOTATION SOFTWARE</t>
+  </si>
+  <si>
+    <t>MIKADO: a smart city KPIs assessment modeling framework</t>
+  </si>
+  <si>
+    <t>6-layer model for a structured description and categorization of urban traffic and environment</t>
+  </si>
+  <si>
+    <t>Beiträge zur szenarienbegleiteten Entwicklung von automatisierten Fahrfunktionen</t>
+  </si>
+  <si>
+    <t>System modes-digestible system (re-) configuration for robotics</t>
+  </si>
+  <si>
+    <t>A MBSE-Based Development Life Cycle for Reconnaissance, Early-Warning, and Intelligence Equipment System-Of-Systems.</t>
+  </si>
+  <si>
+    <t>Software Reliability Model based on Syntax Tree</t>
+  </si>
+  <si>
+    <t>Finite-state machine method in the safety assessment process using Stateflow diagrams</t>
+  </si>
+  <si>
+    <t>Counterexample Interpretation for Contract-Based Design</t>
+  </si>
+  <si>
+    <t>A variability modeling and transformation approach for safety-critical systems</t>
+  </si>
+  <si>
+    <t>Метод определения подхода отказобезопасности критического оборудования на этапе системного проектирования</t>
+  </si>
+  <si>
+    <t>Prediction of rock abrasivity and hardness from mineral composition</t>
+  </si>
+  <si>
+    <t>Visual Studio Code VDM Support</t>
+  </si>
+  <si>
+    <t>Decoupling of Core Analysis Support for Specification Languages from User Interfaces in Integrated Development Environments</t>
+  </si>
+  <si>
+    <t>The Specification Language Server Protocol: A Proposal for Standardised LSP Extensions</t>
+  </si>
+  <si>
+    <t>Towards debugging facilities for graphical modeling languages in web-based modeling tools</t>
+  </si>
+  <si>
+    <t>Analysis of Decision Model and Notation tooling in the Visual Studio Code ecosystem</t>
+  </si>
+  <si>
+    <t>A generic projectional editor for EMF models</t>
+  </si>
+  <si>
+    <t>Semantics of a Foundational Subset for Executable</t>
+  </si>
+  <si>
+    <t>Applications of model-driven engineering in cyber-physical systems: A systematic mapping study</t>
+  </si>
+  <si>
+    <t>Security patterns: A systematic mapping study</t>
+  </si>
+  <si>
+    <t>Languages for specifying missions of robotic applications</t>
+  </si>
+  <si>
+    <t>Promise: high-level mission specification for multiple robots</t>
+  </si>
+  <si>
+    <t>Robotics software engineering: a perspective from the service robotics domain.</t>
+  </si>
+  <si>
+    <t>Behavior trees in action: a study of robotics applications</t>
+  </si>
+  <si>
+    <t>Classification algorithms framework (CAF) to enable intelligent systems using JetBrains MPS domainspecific languages environment</t>
+  </si>
+  <si>
+    <t>First Steps in Teaching Robotics with Drones</t>
+  </si>
+  <si>
+    <t>Visual Programming Environments for EndUser Development of intelligent and social robots, a systematic review</t>
+  </si>
+  <si>
+    <t>An empirical analysis of the costs of clone- and platform-oriented software reuse</t>
+  </si>
+  <si>
+    <t>Exploring differences and commonalities between feature flags and configuration options</t>
+  </si>
+  <si>
+    <t>SLang: a domain-specific language for survey questionnaires.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Bacatá: Notebooks for DSLs, Almost for Free</t>
+  </si>
+  <si>
+    <t>Towards engineering future gameful applications</t>
+  </si>
+  <si>
+    <t>Papyrus for gamers, let’s play modeling</t>
+  </si>
+  <si>
+    <t>A Generic Projectional Editor for EMF Models</t>
+  </si>
+  <si>
+    <t>Comparing and classifying model transformation reuse approaches across metamodels.</t>
+  </si>
+  <si>
+    <t>FASTEN.Safe: A model-driven engineering tool to experiment with checkable assurance cases</t>
+  </si>
+  <si>
+    <t>Safety assurance of open context systems</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just enough formality in assurance argument structures. In: Computer Safety, Reliability, and Security</t>
+  </si>
+  <si>
+    <t>Tiny Structure Editors for Low, Low Prices</t>
+  </si>
+  <si>
+    <t>mage: Fluid Moves Between Code and Graphical Work in Computational Notebooks</t>
+  </si>
+  <si>
+    <t>Projection Boxes: On-the-fly Reconfigurable Visualization for Live Programming</t>
+  </si>
+  <si>
+    <t>Hazel Tutor: Guiding Novices Through Type-Driven Development Strategies</t>
+  </si>
+  <si>
+    <t>MAF: A Framework for Modular Static Analysis of Higher-Order Languages</t>
+  </si>
+  <si>
+    <t>Incremental Abstract Interpretation</t>
+  </si>
+  <si>
+    <t>Formal Verification of OIL Component Specifications using mCRL2</t>
+  </si>
+  <si>
+    <t>FASTEN.Safe: A model-driven engineering tool to experiment with checkable assurance case</t>
+  </si>
+  <si>
+    <t>Purely functional GLL parsing</t>
+  </si>
+  <si>
+    <t>A New Life for Legacy Language Definition Approaches</t>
+  </si>
+  <si>
+    <t>Xatkit: A Multimodal Low-Code Chatbot Development Framewor</t>
+  </si>
+  <si>
+    <t>Collaborative modelling: chatbots or on-line tools? An experimental study</t>
+  </si>
+  <si>
+    <t>Multi-purpose Syntax Definition with SDF3</t>
+  </si>
+  <si>
+    <t>Teaching MPS Experiences from Industry and Academia</t>
+  </si>
+  <si>
+    <t>Modeling cultures of the embedded software industry: feedback from the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A survey of modeling language specification techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A survey on the practical use of UML for different software architecture viewpoints</t>
+  </si>
+  <si>
+    <t>A Complete Bibliography of Proceedings of the ACM on Programming Languages</t>
+  </si>
+  <si>
+    <t>A survey of modeling language specification techniques</t>
+  </si>
+  <si>
+    <t>A survey on the practical use of UML for different software architecture viewpoints</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>exclusion</t>
+  </si>
+  <si>
+    <t>not projectional editing</t>
+  </si>
+  <si>
+    <t>in initial list</t>
+  </si>
+  <si>
+    <t>Just enough formality in assurance argument structures</t>
+  </si>
+  <si>
+    <t>Xatkit: A Multimodal Low-Code Chatbot Development Framework</t>
+  </si>
+  <si>
+    <t>BPRIM: An integrated framework for business process management and risk management</t>
+  </si>
+  <si>
+    <t>A systematic literature review on Enterprise Architecture Visualization Methodologies</t>
+  </si>
+  <si>
+    <t>Intuitive understanding of domain-specific modeling languages: proposition and application of an evaluation technique</t>
+  </si>
+  <si>
+    <t>Systems modeling language extension to support modeling of human‐agent teams</t>
+  </si>
+  <si>
+    <t>M2FOL: a formal modeling language for metamodels</t>
+  </si>
+  <si>
+    <t>Linguistic Patterns and Linguistic Styles for Requirements Specification: Focus on Data Entities</t>
+  </si>
+  <si>
+    <t>Towards a Multi-Objective Modularization Approach for Entity-Relationship Models.</t>
+  </si>
+  <si>
+    <t>Bprim: An integrated framework for business process management and risk management</t>
+  </si>
+  <si>
+    <t>Conceptualizing capability change</t>
+  </si>
+  <si>
+    <t>Formal specification, implementation, and evaluation of the AdoBPRIM approach</t>
+  </si>
+  <si>
+    <t>Modeling Quantum programs: challenges, initial results, and research directions</t>
+  </si>
+  <si>
+    <t>Formalizing the Four-layer Metamodeling Stack--Potential and Benefits</t>
+  </si>
+  <si>
+    <t>Using Domain-Specific Models to Facilitate Model-Based Systems-Engineering: Development Process Design Modeling with OPM and PROVE</t>
+  </si>
+  <si>
+    <t>Risky language–or a common language for risk communication and process safety?</t>
+  </si>
+  <si>
+    <t>An analysis of capability meta-models for expressing dynamic business transformation</t>
+  </si>
+  <si>
+    <t>Implementing the Behavioral Semantics of Diagrammatic Languages by Co-simulation</t>
+  </si>
+  <si>
+    <t>Development of electronic record-keeping software for remote participation in Large Volume Plasma Device upgrade using Angular 2 and NodeJS web technologies</t>
+  </si>
+  <si>
+    <t>Workflow-aware access control for the Internet of Things</t>
+  </si>
+  <si>
+    <t>Towards a Multi-Objective Modularization Approach for Entity-Relationship Models</t>
+  </si>
+  <si>
+    <t>Requirements for Model-Based Development Process Design and Compliance of Standardized Models. Systems 2021, 9, 3</t>
+  </si>
+  <si>
+    <t>A Modeling Method for Model-Driven API Management</t>
+  </si>
+  <si>
+    <t>TOWARDS VISUALIZING AND SIMULATING BUSINESS MODELS IN DYNAMIC PLATFORM ECOSYSTEMS</t>
+  </si>
+  <si>
+    <t>Extending BPM (N) to Support Face-to-Virtual (F2V) Process Modeling.</t>
+  </si>
+  <si>
+    <t>Risk-aware business process management using multi-view modeling: method and tool</t>
+  </si>
+  <si>
+    <t>Requirements for Model-Based Development Process Design and Compliance of Standardized Models</t>
+  </si>
+  <si>
+    <t>DESIGNING A MODEL-BASED, MULTI-PERSPECTIVE PROCESS DESIGN ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Modelling of 3rd Party Logistics Provider Using Unified Modelling Language</t>
+  </si>
+  <si>
+    <t>TOWARD UNDERSTANDING THE COMPLEXITY OF BUSINESS MODELS–A TAXONOMY OF BUSINESS MODEL DEPENDENCIES</t>
+  </si>
+  <si>
+    <t>VR-UML: The Unified Modeling Language in Virtual Reality–An Immersive Modeling Experience</t>
+  </si>
+  <si>
+    <t>A survey of model-driven techniques and tools for cyber-physical systems</t>
+  </si>
+  <si>
+    <t>Model-Driven Engineering Tools and Languages for Cyber-Physical Systems–A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>The Industry 4.0 net information, measuring and control subsystems</t>
+  </si>
+  <si>
+    <t>Model-driven round-trip engineering for TinyOS-based WSN applications</t>
+  </si>
+  <si>
+    <t>The Design Space of Computational Notebooks: An Analysis of 60 Systems in Academia and Industry</t>
+  </si>
+  <si>
+    <t>On Computational Notebooks to Empower Physical Computing Novices</t>
+  </si>
+  <si>
+    <t>Literaturübersicht zur kollaborativen Modellierung</t>
+  </si>
+  <si>
+    <t>Réplica y agregación de resultados de un experimento sobre la usabilidad de un chatbot</t>
+  </si>
+  <si>
+    <t>Wodel-Test: a model-based framework for language-independent mutation testing</t>
+  </si>
+  <si>
+    <t>An ontological metamodel for cyber-physical system safety, security, and resilience coengineering</t>
+  </si>
+  <si>
+    <t>Department of Informatics</t>
+  </si>
+  <si>
+    <t>Adaptive neural network system to build environmental prediction and control by their typing biometrics</t>
+  </si>
+  <si>
+    <t>Special section on ICMT at STAF 2018</t>
+  </si>
+  <si>
+    <t>Systematic Engineering of Mutation Operators.</t>
+  </si>
+  <si>
+    <t>Facet-oriented Modelling</t>
+  </si>
+  <si>
+    <t>Capture the feature flag: Detecting feature flags in open-source</t>
+  </si>
+  <si>
+    <t>Software development with feature toggles: practices used by practitioners</t>
+  </si>
+  <si>
+    <t>How the adoption of feature toggles affects branch merges and defects in open-source projects?</t>
+  </si>
+  <si>
+    <t>Release synchronization in software ecosystems</t>
+  </si>
+  <si>
+    <t>An Evolutionary Study of Configuration Design and Implementation in Cloud Systems</t>
+  </si>
+  <si>
+    <t>Onboarding vs. Diversity, Productivity, and Quality-Empirical Study of the OpenStack Ecosystem</t>
+  </si>
+  <si>
+    <t>How to integrate with real cars-minimizing lead time at Volkswagen</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Lux: Always-on Visualization Recommendations for Exploratory Data Science</t>
+  </si>
+  <si>
+    <t>Interaction History for Building Human-Data Interfaces</t>
+  </si>
+  <si>
+    <t>Integrated Visualization Editing via Parameterized Declarative Templates</t>
+  </si>
+  <si>
+    <t>Glinda: Supporting Data Science with Live Programming, GUIs and a Domain-specific Language</t>
+  </si>
+  <si>
+    <t>Falx: Synthesis-Powered Visualization Authoring</t>
+  </si>
+  <si>
+    <t>TweakIt: Supporting End-User Programmers Who Transmogrify Code</t>
+  </si>
+  <si>
+    <t>Resolvable ambiguity: principled resolution of syntactically ambiguous programs</t>
+  </si>
+  <si>
+    <t>Example-based live programming for everyone: building language-agnostic tools for live programming with LSP and GraalVM</t>
+  </si>
+  <si>
+    <t>Small-Step Live Programming by Example</t>
+  </si>
+  <si>
+    <t>Example-Based Live Programming for Everyone</t>
+  </si>
+  <si>
+    <t>Guided Optimization for Image Processing Pipelines</t>
+  </si>
+  <si>
+    <t>Runtime Visualization for Model-View-Update GUIs</t>
+  </si>
+  <si>
+    <t>Programming with a read-eval-synth loop</t>
+  </si>
+  <si>
+    <t>Konjak: Live Visualization in Deep Neural Network Programming as a Learning Tool</t>
+  </si>
+  <si>
+    <t>Représentations intermédiaires interactives pour la manipulation de code LATEX</t>
+  </si>
+  <si>
+    <t>Towards automating the synthesis of chatbots for conversational model query</t>
+  </si>
+  <si>
+    <t>Openapi bot: A chatbot to help you understand rest apis</t>
+  </si>
+  <si>
+    <t>JAICOB: A data science chatbot</t>
+  </si>
+  <si>
+    <t>International Journal of Advanced Trends in Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t>Development and testing of an FPT. AI-based voicebot</t>
+  </si>
+  <si>
+    <t>Semantics-Driven Conversational Interfaces for Museum Chatbots</t>
+  </si>
+  <si>
+    <t>A Semantic Web Framework for Automated Smart Assistants: COVID-19 Case Study</t>
+  </si>
+  <si>
+    <t>Model-driven chatbot development</t>
+  </si>
+  <si>
+    <t>Global Mobility Chatbot: Global Mobility Chatbot</t>
+  </si>
+  <si>
+    <t>Towards a model-driven approach for multiexperience AI-based user interfaces</t>
+  </si>
+  <si>
+    <t>Influence of the Contact Center Systems Development on Key Performance Indicators</t>
+  </si>
+  <si>
+    <t>Creating and Migrating Chatbots with CONGA</t>
+  </si>
+  <si>
+    <t>Enterprise Modeling: From Digital Transformation to Digital Ubiquity</t>
+  </si>
+  <si>
+    <t>Chatbots as first-class citizens in software development–Making CUIs your only UI</t>
+  </si>
+  <si>
+    <t>A Low-Code Development Framework for Constructing Industrial Apps</t>
+  </si>
+  <si>
+    <t>Xatkit: A model-based chatbot development framework</t>
+  </si>
+  <si>
+    <t>Knowledge generation and communication in intelligent and immersive systems: a case study on flooding</t>
+  </si>
+  <si>
+    <t>The Software Challenges of Building Smart Chatbots</t>
+  </si>
+  <si>
+    <t>A Model-Based Chatbot Generation Approach to Converse with Open Data Sources</t>
+  </si>
+  <si>
+    <t>Multi-Sensor Context-Aware Based Chatbot Model: An Application of Humanoid Companion Robot</t>
+  </si>
+  <si>
+    <t>Diplomat: A conversational agent framework for goal-oriented group discussion</t>
+  </si>
+  <si>
+    <t>All Researchers Should Become Entrepreneurs</t>
+  </si>
+  <si>
+    <t>Integration of micro-services as components in modeling environments for low code development</t>
+  </si>
+  <si>
+    <t>KoRASA: Pipeline Optimization for Open-Source Korean Natural Language Understanding Framework Based on Deep Learning</t>
+  </si>
+  <si>
+    <t>iContractBot: A Chatbot for Smart Contracts' Specification and Code Generation</t>
+  </si>
+  <si>
+    <t>A Model-based Chatbot Generation Approach to Converse with Open Data Sources</t>
+  </si>
+  <si>
+    <t>Designing and validating conversational agents for data exploration</t>
+  </si>
+  <si>
+    <t>Apoiando a colaboração de recém-chegados em equipes de desenvolvimento de software</t>
+  </si>
+  <si>
+    <t>Chatbot para el aprendizaje de la limpieza y desinfección para protegerse de la COVID 19 en el hogar</t>
+  </si>
+  <si>
+    <t>A domain-specific modeling language for device tree software</t>
+  </si>
+  <si>
+    <t>Semantics and model checking of OIL component specifications</t>
+  </si>
+  <si>
+    <t>Model checking for hybrid branching-time logics</t>
+  </si>
+  <si>
+    <t>Engage Against the Machine: Rise of the Notional Machines as Effective Pedagogical Devices</t>
+  </si>
+  <si>
+    <t>Explicit Programming Strategies</t>
+  </si>
+  <si>
+    <t>Models and Tools to design Robotic Behaviors</t>
+  </si>
+  <si>
+    <t>High-level mission specification for multiple robots</t>
+  </si>
+  <si>
+    <t>Promise: High-level mission specification for multiple robots</t>
+  </si>
+  <si>
+    <t>Robotics software engineering: A perspective from the service robotics domain</t>
+  </si>
+  <si>
+    <t>Behavior trees in action: A study of robotics applications</t>
+  </si>
+  <si>
+    <t>A study on challenges of testing robotic systems,</t>
+  </si>
+  <si>
+    <t>A survey of model driven engineering in robotics</t>
+  </si>
+  <si>
+    <t>Evolutionary-guided synthesis of verified paretooptimal MDP policies</t>
+  </si>
+  <si>
+    <t>A direct semantics of declarative disambiguation rules</t>
+  </si>
+  <si>
+    <t>How are UML class diagrams built in practice? A usability study of two UML tools: Magicdraw and papyrus</t>
+  </si>
+  <si>
+    <t>Grand challenges in model-driven engineering: an analysis of the state of the research</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>unavailable</t>
+  </si>
+  <si>
+    <t>Code generation using model driven architecture: A systematic mapping study</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t>AgentDSM-Eval: A framework for the evaluation of domain-specific modeling languages for multi-agent systems</t>
+  </si>
+  <si>
+    <t>Evaluating the benefits of a computer-aided software engineering tool to develop and document product configuration systems</t>
+  </si>
+  <si>
+    <t>Empirical validation of a quality framework for evaluating modelling languages in MDE environments</t>
+  </si>
+  <si>
+    <t>How end-user programmers forage in online repositories? An information foraging perspective</t>
+  </si>
+  <si>
+    <t>Conceptualization and scalable execution of big data workflows using domain-specific languages and software containers</t>
+  </si>
+  <si>
+    <t>Automatic Code Generation of MVC Web Applications</t>
+  </si>
+  <si>
+    <t>Model-driven digital twin construction: synthesizing the integration of cyber-physical systems with their information systems</t>
+  </si>
+  <si>
+    <t>Opportunities in intelligent modeling assistance</t>
+  </si>
+  <si>
+    <t>Uncertainty representation in software models: a survey</t>
+  </si>
+  <si>
+    <t>Model-driven ML-Ops for intelligent enterprise applications: vision, approaches and challenges</t>
+  </si>
+  <si>
+    <t>Efficient execution of ATL model transformations using static analysis and parallelism</t>
+  </si>
+  <si>
+    <t>A Process Model for Component-Based Model-Driven Software Development</t>
+  </si>
+  <si>
+    <t>Test mocks for low-code applications built with OutSystems</t>
+  </si>
+  <si>
+    <t>MAR: a structure-based search engine for models</t>
+  </si>
+  <si>
+    <t>Category-Theoretic Formulation of the Model-Based Systems Architecting Cognitive-Computational Cycle</t>
+  </si>
+  <si>
+    <t>The Sustainable Efficiency of Modeling a Correspondence Undergraduate Transaction Framework by using Generic Modeling Environment (GME).‏‎</t>
+  </si>
+  <si>
+    <t>Towards an assessment grid for intelligent modeling assistance</t>
+  </si>
+  <si>
+    <t>What is the future of modeling?</t>
+  </si>
+  <si>
+    <t>Positioning of the low-code movement within the field of model-driven engineering</t>
+  </si>
+  <si>
+    <t>Extending OCL with Subjective Logic.</t>
+  </si>
+  <si>
+    <t>Putting the End-User in the Loop in Smart Ambient Systems: an Approach based on Model-Driven Engineering</t>
+  </si>
+  <si>
+    <t>Category-Theoretic Formulation of Model-Based Systems Architecting: The Concept→ Model→ Graph→ View→ Concept Transformation Cycle</t>
+  </si>
+  <si>
+    <t>Pairing conceptual modeling with machine learning</t>
+  </si>
+  <si>
+    <t>Advancing Continuous Model-Based Development in Industry</t>
+  </si>
+  <si>
+    <t>Digitalization in Next Generation C2: Research Agenda from Model-Based Engineering Perspective</t>
+  </si>
+  <si>
+    <t>Understanding the Cyber-Physical System in International Stadiums for Security in the Network from Cyber-Attacks and Adversaries using AI</t>
+  </si>
+  <si>
+    <t>Model-Driven Open Ecological Cloud Enterprise Resource Planning</t>
+  </si>
+  <si>
+    <t>Low-code vs model-driven: are they the same?</t>
+  </si>
+  <si>
+    <t>Efficiently querying large-scale heterogeneous models</t>
+  </si>
+  <si>
+    <t>Towards the next generation of reactive model transformations on low-code platforms: three research lines</t>
+  </si>
+  <si>
+    <t>Of narrow windows and acrobats: COVID-responsiveness and knock-ons via additive manufacturing capabilities</t>
+  </si>
+  <si>
+    <t>A Case Study and Model Transformations Experimentations</t>
+  </si>
+  <si>
+    <t>Intelligent Simulink Modeling Assistance via Model Clones and Machine Learning</t>
+  </si>
+  <si>
+    <t>Empirical Assessment of the Quality of MVC Web Applications Returned by xGenerator. Computers 2021, 10, 20</t>
+  </si>
+  <si>
+    <t>Creating a Domain-Specific Modeling Language for Educational Card Games</t>
+  </si>
+  <si>
+    <t>Enhancing collaborative modeling</t>
+  </si>
+  <si>
+    <t>Instant distribution of consistency-relevant change information in a hierarchical multi-developer engineering environment</t>
+  </si>
+  <si>
+    <t>Empirical Assessment of the Quality of MVC Web Applications Returned by xGenerator</t>
+  </si>
+  <si>
+    <t>Collaborative Model-Driven Software Engineering: A Systematic Update</t>
+  </si>
+  <si>
+    <t>Modeling Objects with Uncertain Behaviors</t>
+  </si>
+  <si>
+    <t>Efficiently querying large-scale heterogeneous models.</t>
+  </si>
+  <si>
+    <t>Non-Mobile Software Modernization in Accordance With the Principles of Model-Driven Engineering</t>
+  </si>
+  <si>
+    <t>Crop2ML: An open-source multi-language modeling framework for the exchange and reuse of crop model components</t>
+  </si>
+  <si>
+    <t>Learn-CIAM: A Model-Driven Approach for the Development of Collaborative Learning Tools</t>
+  </si>
+  <si>
+    <t>Scenario-based specification of security protocols and transformation to security model checkers</t>
+  </si>
+  <si>
+    <t>MBSE and MDAO for Early Validation of Design Decisions: a Bibliography Survey</t>
+  </si>
+  <si>
+    <t>Papyrus for gamers, let's play modeling</t>
+  </si>
+  <si>
+    <t>ChainOps for Smart Contract-Based Distributed Applications</t>
+  </si>
+  <si>
+    <t>Mining of DSLs and generator templates from reference applications</t>
+  </si>
+  <si>
+    <t>Parallel and Distributed Execution of Model Management Programs</t>
+  </si>
+  <si>
+    <t>Metadata Interpretation Driven Development, uma abordagem de desenvolvimento de Sistemas de Dissociado do Domínio de Negócios</t>
+  </si>
+  <si>
+    <t>Modélisation des systèmes complexes et Points de vue: l'Ingénierie des Modèles centrée utilisateur pour l'Ingénierie Système</t>
+  </si>
+  <si>
+    <t>Fédération de modèles pour l'analyse de cybersécurité du point de vue d'un attaquant.</t>
+  </si>
+  <si>
+    <t>Pesquisando Soluções para Desafios em MDE com Kuaba</t>
+  </si>
+  <si>
+    <t>not in english</t>
+  </si>
+  <si>
+    <t>not projectional</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>In previous iteration</t>
   </si>
 </sst>
 </file>
@@ -579,12 +1381,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EB3729-F37E-44FD-804A-322DBD5E3E9F}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B84"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +2624,7 @@
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1839,12 +2644,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B7677-73E2-4F57-80E2-43239A24A1D4}">
+  <dimension ref="A2:B174"/>
+  <sheetViews>
+    <sheetView topLeftCell="A140" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="137.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B166" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B175" xr:uid="{503B7677-73E2-4F57-80E2-43239A24A1D4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A174">
+    <sortCondition ref="A2:A174"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A99"/>
+      <selection activeCell="A4" sqref="A4:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,19 +3761,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1877,15 +3781,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1893,29 +3797,29 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1923,7 +3827,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1931,18 +3835,18 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1950,7 +3854,7 @@
         <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1958,7 +3862,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1966,7 +3870,7 @@
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1974,15 +3878,15 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1992,7 +3896,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,7 +3904,7 @@
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2008,18 +3912,18 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2027,7 +3931,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2035,18 +3939,18 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2054,7 +3958,7 @@
         <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2062,18 +3966,18 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2081,31 +3985,31 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +4019,7 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2123,18 +4027,18 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2144,7 +4048,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2152,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2160,7 +4064,7 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2168,7 +4072,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2176,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2184,18 +4088,18 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2203,18 +4107,18 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2222,15 +4126,15 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2240,7 +4144,7 @@
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2248,15 +4152,15 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2264,23 +4168,23 @@
         <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2288,21 +4192,21 @@
         <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +4216,7 @@
         <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2320,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2328,7 +4232,7 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2336,7 +4240,7 @@
         <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2344,28 +4248,28 @@
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2373,7 +4277,7 @@
         <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2381,7 +4285,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2389,42 +4293,42 @@
         <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2434,29 +4338,29 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2464,18 +4368,18 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -2483,7 +4387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2493,7 +4397,7 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2501,7 +4405,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2509,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2517,7 +4421,7 @@
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2525,15 +4429,18 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>42</v>
       </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2541,28 +4448,28 @@
         <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2570,7 +4477,7 @@
         <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2578,7 +4485,7 @@
         <v>47</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2586,10 +4493,10 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2599,33 +4506,33 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2633,10 +4540,10 @@
         <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -2644,7 +4551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>57</v>
       </c>
@@ -2652,92 +4559,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:D176" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D176" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A175">
     <sortCondition ref="A134:A175"/>
   </sortState>
@@ -2745,289 +4568,3602 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A472E034-BB8B-4679-8A1F-EC1E7495C1DE}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="117.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FE72A1-D915-4F08-92DA-B46331045FE2}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="117.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14C6FF-2DA0-4586-BE22-7BB917895309}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B1:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="117.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E9A8D-E21D-44B9-8DFE-3A51BE0E978F}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D110"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="128.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s">
+        <v>422</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>422</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>422</v>
+      </c>
+      <c r="C109">
+        <v>31</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B112" xr:uid="{222E9A8D-E21D-44B9-8DFE-3A51BE0E978F}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="*"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B111">
+    <sortCondition ref="A2:A111"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3EE600-02E2-43B7-A703-578BDDE2811D}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="85.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19728A0F-5BE6-4440-83C7-638ACDC1DDA2}">
+  <dimension ref="A2:B115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B115" sqref="B2:B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="98.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>247</v>
+      </c>
+      <c r="B96" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3088,6 +8224,2298 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04AE3B8-BE86-4912-B46E-6B768B5FF191}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="133" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>332</v>
+      </c>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>315</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>307</v>
+      </c>
+      <c r="B102" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>289</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>333</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B136" xr:uid="{E04AE3B8-BE86-4912-B46E-6B768B5FF191}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A135">
+    <sortCondition ref="A91:A135"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D108026-E775-4B9A-A678-5302A67F8C35}">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="86.90625" customWidth="1"/>
+    <col min="2" max="2" width="126.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>409</v>
+      </c>
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s">
+        <v>412</v>
+      </c>
+      <c r="C52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" t="s">
+        <v>415</v>
+      </c>
+      <c r="C55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B58" t="s">
+        <v>418</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59" t="s">
+        <v>419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846FB861-9FDC-4A4E-A89D-38AF9373D1E1}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="126.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>397</v>
+      </c>
+      <c r="B37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>402</v>
+      </c>
+      <c r="B42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>407</v>
+      </c>
+      <c r="B47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D60" xr:uid="{846FB861-9FDC-4A4E-A89D-38AF9373D1E1}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="not projectional"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Literature mapping/stateoftheart.xlsx
+++ b/Literature mapping/stateoftheart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E62E-D39E-4C8D-8427-3F1160E56DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9370E4F1-65D6-431D-A5A9-059013840AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="-17505" windowWidth="10125" windowHeight="6795" tabRatio="917" activeTab="21" xr2:uid="{BEBBE7CD-C2EA-4C4E-939C-4EA0A7F78CED}"/>
+    <workbookView xWindow="47820" yWindow="-18225" windowWidth="10125" windowHeight="6795" tabRatio="917" activeTab="22" xr2:uid="{BEBBE7CD-C2EA-4C4E-939C-4EA0A7F78CED}"/>
   </bookViews>
   <sheets>
     <sheet name="google Scholar" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,13 @@
     <sheet name="snowball1" sheetId="22" r:id="rId20"/>
     <sheet name="FSB2" sheetId="23" r:id="rId21"/>
     <sheet name="snowball2" sheetId="24" r:id="rId22"/>
+    <sheet name="Quality Assessment" sheetId="26" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">All!$A$1:$D$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BASE!$B$19:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'google Scholar'!$A$1:$C$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Quality Assessment'!$A$1:$B$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet10!$A$1:$B$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'snowball total'!$A$1:$B$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">snowball1!$A$1:$B$136</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="430">
   <si>
     <t>Search`</t>
   </si>
@@ -1337,6 +1339,24 @@
   </si>
   <si>
     <t>In previous iteration</t>
+  </si>
+  <si>
+    <t>Appraisal Type</t>
+  </si>
+  <si>
+    <t>Is to do with projectional editing</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>doubt: in</t>
+  </si>
+  <si>
+    <t>doubt: out</t>
   </si>
 </sst>
 </file>
@@ -3745,10 +3765,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}">
-  <dimension ref="A1:D101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A94"/>
+      <selection activeCell="A4" sqref="A4:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3773,7 +3794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -3800,7 +3821,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3811,7 +3832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3838,7 +3859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -3881,12 +3902,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3915,7 +3936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3942,7 +3963,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3969,7 +3990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -3988,17 +4009,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -4009,7 +4030,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -4030,7 +4051,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -4038,7 +4059,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4091,7 +4112,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>132</v>
       </c>
@@ -4110,7 +4131,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -4129,12 +4150,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -4155,7 +4176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4171,12 +4192,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -4195,7 +4216,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4206,7 +4227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -4251,17 +4272,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -4296,7 +4317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
@@ -4308,27 +4329,27 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4341,7 +4362,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -4371,7 +4392,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -4387,7 +4408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -4451,17 +4472,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -4496,7 +4517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4509,22 +4530,22 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4564,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -4551,7 +4572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>57</v>
       </c>
@@ -4559,8 +4580,95 @@
         <v>68</v>
       </c>
     </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="114" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="115" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="116" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="117" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="118" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="119" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="120" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="122" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="123" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="124" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="125" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="126" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="127" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="128" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:D176" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}"/>
+  <autoFilter ref="A1:D176" xr:uid="{7E60C387-9266-4B81-8F26-D3932CDFC676}">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A175">
     <sortCondition ref="A134:A175"/>
   </sortState>
@@ -8234,7 +8342,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10012,8 +10120,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10516,6 +10624,594 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C547C5AF-2B69-45DF-BDC7-35FFC0CE2B0E}">
+  <dimension ref="A1:C71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="117.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>345</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B72" xr:uid="{C547C5AF-2B69-45DF-BDC7-35FFC0CE2B0E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
